--- a/Atalhos/1.xlsx
+++ b/Atalhos/1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10-2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Atalhos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,22 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Teclas de Atalho - Microsoft Excel</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -1008,6 +998,36 @@
   </si>
   <si>
     <t>Cria nova pasta.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Comando</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Atalho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Descrição</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1369,7 +1389,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,63 +1400,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1446,200 +1472,200 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
